--- a/downloaded_files/EECS102_Lecture-35885.xlsx
+++ b/downloaded_files/EECS102_Lecture-35885.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -313,6 +313,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240370</x:t>
@@ -491,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -791,7 +800,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1902,7 +1911,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.5428112616</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.5715863079</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2111,6 +2120,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45914.5715863079</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35885.xlsx
+++ b/downloaded_files/EECS102_Lecture-35885.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>abdelrahman haitham abbas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1240097</x:t>
@@ -500,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -800,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1465,7 +1474,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5861502662</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5859113773</x:v>
+        <x:v>45914.5861502662</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5430771644</x:v>
+        <x:v>45914.5859113773</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1557,9 +1566,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5851292824</x:v>
+        <x:v>45914.5430771644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1582,16 +1593,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45914.5503029745</x:v>
+        <x:v>45914.5851292824</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1623,7 +1632,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5754740394</x:v>
+        <x:v>45914.5503029745</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1655,7 +1664,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5838647338</x:v>
+        <x:v>45914.5754740394</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1687,7 +1696,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5512697106</x:v>
+        <x:v>45914.5838647338</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1719,7 +1728,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45914.5512697106</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1751,7 +1760,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5441275116</x:v>
+        <x:v>45914.6332996875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1783,7 +1792,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.541562419</x:v>
+        <x:v>45914.5441275116</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1815,7 +1824,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6723933218</x:v>
+        <x:v>45914.541562419</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1847,7 +1856,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.5437917014</x:v>
+        <x:v>45907.6723933218</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1879,7 +1888,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.5434844097</x:v>
+        <x:v>45914.5437917014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1911,7 +1920,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45914.5434844097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1943,7 +1952,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1975,7 +1984,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2007,7 +2016,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.5428112616</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.5715863079</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2152,6 +2161,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45914.5715863079</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35885.xlsx
+++ b/downloaded_files/EECS102_Lecture-35885.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -64,6 +64,15 @@
   </x:si>
   <x:si>
     <x:t>Eyad Hossni Mohammed ElBakry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1240217</x:t>
@@ -509,7 +518,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +818,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1026,7 +1035,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.5800085301</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1058,7 +1067,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.534387037</x:v>
+        <x:v>45914.5800085301</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.5353270833</x:v>
+        <x:v>45914.534387037</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.5816861111</x:v>
+        <x:v>45914.5353270833</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.5370814815</x:v>
+        <x:v>45914.5816861111</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6588234954</x:v>
+        <x:v>45914.5370814815</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.5866372685</x:v>
+        <x:v>45914.6588234954</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5360060185</x:v>
+        <x:v>45914.5866372685</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1282,7 +1291,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5422490741</x:v>
+        <x:v>45914.5360060185</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6358980671</x:v>
+        <x:v>45914.5422490741</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5443251968</x:v>
+        <x:v>45914.6358980671</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5520824884</x:v>
+        <x:v>45914.5443251968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6374003819</x:v>
+        <x:v>45914.5520824884</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5834934028</x:v>
+        <x:v>45914.6374003819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45914.5834934028</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5861502662</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5859113773</x:v>
+        <x:v>45914.5861502662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5430771644</x:v>
+        <x:v>45914.5859113773</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1598,9 +1607,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5851292824</x:v>
+        <x:v>45914.5430771644</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1623,16 +1634,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45914.5503029745</x:v>
+        <x:v>45914.5851292824</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1664,7 +1673,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5754740394</x:v>
+        <x:v>45914.5503029745</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1696,7 +1705,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5838647338</x:v>
+        <x:v>45914.5754740394</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1728,7 +1737,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5512697106</x:v>
+        <x:v>45914.5838647338</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1760,7 +1769,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45914.5512697106</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1792,7 +1801,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5441275116</x:v>
+        <x:v>45914.6332996875</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1824,7 +1833,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.541562419</x:v>
+        <x:v>45914.5441275116</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1856,7 +1865,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6723933218</x:v>
+        <x:v>45914.541562419</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1888,7 +1897,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.5437917014</x:v>
+        <x:v>45907.6723933218</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1920,7 +1929,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.5434844097</x:v>
+        <x:v>45914.5437917014</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1952,7 +1961,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45914.5434844097</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1984,7 +1993,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2016,7 +2025,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2048,7 +2057,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2080,7 +2089,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2112,7 +2121,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,7 +2153,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.5428112616</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.5715863079</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2202,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45914.5715863079</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35885.xlsx
+++ b/downloaded_files/EECS102_Lecture-35885.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -57,6 +57,15 @@
     <x:t>Anas Waleed Salah Eldeen Elsayed Mahmoudd</x:t>
   </x:si>
   <x:si>
+    <x:t>1240030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAwab Tamer Zakaria</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240031</x:t>
   </x:si>
   <x:si>
@@ -111,15 +120,6 @@
     <x:t>Roudina Mahmoud Ahmed Moustafa Mousa</x:t>
   </x:si>
   <x:si>
-    <x:t>1240069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى الحسيني محمد عادل محمد الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240073</x:t>
   </x:si>
   <x:si>
@@ -331,6 +331,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حمزه محمد زعزوع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Hamza Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>4250195</x:t>
@@ -518,7 +527,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -818,7 +827,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1003,7 +1012,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.5425302893</x:v>
+        <x:v>45907.6651261574</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1035,7 +1044,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45922.3727138889</x:v>
+        <x:v>45914.5425302893</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1067,7 +1076,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.5800085301</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1099,7 +1108,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.534387037</x:v>
+        <x:v>45914.5800085301</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1131,7 +1140,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.5353270833</x:v>
+        <x:v>45914.534387037</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1163,7 +1172,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.5816861111</x:v>
+        <x:v>45914.5353270833</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1195,7 +1204,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.5370814815</x:v>
+        <x:v>45914.5816861111</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2025,7 +2034,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2057,7 +2066,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2089,7 +2098,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2121,7 +2130,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2153,7 +2162,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.5428112616</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45914.5715863079</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2234,6 +2243,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45914.5715863079</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35885.xlsx
+++ b/downloaded_files/EECS102_Lecture-35885.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,12 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1240191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240208</x:t>
   </x:si>
   <x:si>
@@ -48,15 +42,6 @@
     <x:t>Ahmed Wael Ali Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انس وليد صلاح الدين السيد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anas Waleed Salah Eldeen Elsayed Mahmoudd</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240030</x:t>
   </x:si>
   <x:si>
@@ -75,15 +60,6 @@
     <x:t>Eyad Hossni Mohammed ElBakry</x:t>
   </x:si>
   <x:si>
-    <x:t>4250169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240217</x:t>
   </x:si>
   <x:si>
@@ -120,24 +96,6 @@
     <x:t>Roudina Mahmoud Ahmed Moustafa Mousa</x:t>
   </x:si>
   <x:si>
-    <x:t>1240073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف طارق عبدالستار محمد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saif tarek abd El sattar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240321</x:t>
   </x:si>
   <x:si>
@@ -156,15 +114,6 @@
     <x:t>Taher Mahmoud Taher Mohamed Yousef</x:t>
   </x:si>
   <x:si>
-    <x:t>1240080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن خالد محمد عبد المنعم الامير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Khaled Elameer</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240231</x:t>
   </x:si>
   <x:si>
@@ -183,15 +132,6 @@
     <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240088</x:t>
   </x:si>
   <x:si>
@@ -201,24 +141,6 @@
     <x:t>abdelrahman haitham abbas</x:t>
   </x:si>
   <x:si>
-    <x:t>4250183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمود نجاح مكاوى خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر أيمن محمد نجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar ayman Mohamed neged</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240103</x:t>
   </x:si>
   <x:si>
@@ -279,15 +201,6 @@
     <x:t>amr sabry abdullatif ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو محمد سعيد حسن عبد الفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Mohamed Saied Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240403</x:t>
   </x:si>
   <x:si>
@@ -333,24 +246,6 @@
     <x:t>Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>4250211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حمزه محمد زعزوع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed Hamza Mohammed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240370</x:t>
   </x:si>
   <x:si>
@@ -360,15 +255,6 @@
     <x:t>Maryem Hatem Mohamed Emara</x:t>
   </x:si>
   <x:si>
-    <x:t>1240186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم هانى مصطفى جوده عبدالرازق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maryam Hany Mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240377</x:t>
   </x:si>
   <x:si>
@@ -394,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1240169</x:t>
@@ -527,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -827,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -914,9 +791,11 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
-        <x:v>45916.3974413194</x:v>
+        <x:v>45914.5334834144</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -939,16 +818,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.5334834144</x:v>
+        <x:v>45907.6651261574</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -971,16 +850,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45916.3963254977</x:v>
+        <x:v>45914.5425302893</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1003,16 +882,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45914.5800085301</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1035,16 +914,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.5425302893</x:v>
+        <x:v>45914.534387037</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1067,16 +946,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45922.3727138889</x:v>
+        <x:v>45914.5353270833</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1099,16 +978,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.5800085301</x:v>
+        <x:v>45914.5816861111</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1131,16 +1010,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.534387037</x:v>
+        <x:v>45914.5360060185</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1163,16 +1042,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.5353270833</x:v>
+        <x:v>45914.5422490741</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1195,16 +1074,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.5816861111</x:v>
+        <x:v>45914.5443251968</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1227,16 +1106,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6588234954</x:v>
+        <x:v>45914.5520824884</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1259,16 +1138,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5866372685</x:v>
+        <x:v>45914.5834934028</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1291,16 +1170,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5360060185</x:v>
+        <x:v>45914.5859113773</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1323,16 +1202,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5422490741</x:v>
+        <x:v>45914.5430771644</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1355,16 +1234,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45914.6358980671</x:v>
+        <x:v>45914.5851292824</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1396,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5443251968</x:v>
+        <x:v>45914.5503029745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1428,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5520824884</x:v>
+        <x:v>45914.5754740394</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1460,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6374003819</x:v>
+        <x:v>45914.5838647338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1492,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5834934028</x:v>
+        <x:v>45914.5512697106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1524,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45914.5441275116</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1556,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5861502662</x:v>
+        <x:v>45914.541562419</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1588,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5859113773</x:v>
+        <x:v>45907.6723933218</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1620,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5430771644</x:v>
+        <x:v>45914.5437917014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1648,9 +1525,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5851292824</x:v>
+        <x:v>45914.5434844097</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1673,16 +1552,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5503029745</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1705,16 +1584,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5754740394</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1737,16 +1616,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5838647338</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1769,16 +1648,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5512697106</x:v>
+        <x:v>45914.5428112616</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1801,16 +1680,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45914.5715863079</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1828,454 +1707,6 @@
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
     </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45914.5441275116</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45914.541562419</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.6723933218</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45914.5437917014</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45914.5434844097</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45923.5143698264</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45919.7232276273</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45914.5527487616</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45916.3945853356</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45914.5376066319</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45914.536465544</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45914.5428112616</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45916.3985483449</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45914.5715863079</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2288,9 +1719,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuits-1 (EECS102) Location : [18201]18201-45-الجيزة الرئيسي Time : Monday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS102_Lecture-35885.xlsx
+++ b/downloaded_files/EECS102_Lecture-35885.xlsx
@@ -246,6 +246,15 @@
     <x:t>Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمد كمال الدين منصور  بلاسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240370</x:t>
   </x:si>
   <x:si>
@@ -271,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>Yara Mohamed Tawfik Seleim Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
   </x:si>
   <x:si>
     <x:t>1240169</x:t>
@@ -1241,7 +1241,7 @@
       </x:c>
       <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45914.5851292824</x:v>
+        <x:v>45927.5385569444</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5754740394</x:v>
+        <x:v>45927.5541393519</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1561,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45927.4547890394</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/EECS102_Lecture-35885.xlsx
+++ b/downloaded_files/EECS102_Lecture-35885.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -244,6 +244,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240364</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4547890394</x:v>
+        <x:v>45929.9981445949</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45927.4547890394</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5715863079</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45914.5715863079</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35885.xlsx
+++ b/downloaded_files/EECS102_Lecture-35885.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -244,15 +244,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240364</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1570,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45929.9981445949</x:v>
+        <x:v>45927.4547890394</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4547890394</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5715863079</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45914.5715863079</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
